--- a/BestGame/Config/Excel/Server/ServerConfig.xlsx
+++ b/BestGame/Config/Excel/Server/ServerConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10670"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ServerConfig" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -132,14 +145,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,14 +177,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,152 +675,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1182,13 +1184,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1230,7 +1232,9 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1238,7 +1242,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="2:9">
+    <row r="3" s="1" customFormat="1" ht="17.25" spans="2:9">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="2:9">
+    <row r="4" s="1" customFormat="1" ht="17.25" spans="2:9">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="2:9">
+    <row r="5" s="1" customFormat="1" ht="15.75" spans="2:9">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="2:9">
+    <row r="6" s="1" customFormat="1" ht="15.75" spans="2:9">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1338,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" ht="15.5" spans="1:9">
+    <row r="7" ht="15.75" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12">
@@ -1361,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:9">
+    <row r="8" ht="15.75" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12">
@@ -1388,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="1:9">
+    <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
@@ -1415,7 +1419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:9">
+    <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12">
@@ -1442,7 +1446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="2:9">
+    <row r="11" ht="15.75" spans="2:9">
       <c r="B11" s="11"/>
       <c r="C11" s="12">
         <f t="shared" si="1"/>
@@ -1467,20 +1471,6 @@
       <c r="I11" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
